--- a/biology/Botanique/Polypore_du_mûrier/Polypore_du_mûrier.xlsx
+++ b/biology/Botanique/Polypore_du_mûrier/Polypore_du_mûrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%BBrier</t>
+          <t>Polypore_du_mûrier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyporus alveolaris
 Le Polypore du mûrier (Polyporus alveolaris) est un champignon agaricomycète de la famille des Polyporaceae et du genre Polyporus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%BBrier</t>
+          <t>Polypore_du_mûrier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Largement répandu en Amérique du Nord, on le rencontre aussi en Europe (Portugal, Italie, Tchéquie), Asie et Australie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%BBrier</t>
+          <t>Polypore_du_mûrier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bois mort (saprophytisme) sur les genres Acer, Castanea, Cornus, Corylus, Cratageus, Erica, Fagus, Fraxinus, Juglans, Magnolia, Morus, Populus, Pyrus, Robinia, Quercus, Syringa, Tilia et Ulmus[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois mort (saprophytisme) sur les genres Acer, Castanea, Cornus, Corylus, Cratageus, Erica, Fagus, Fraxinus, Juglans, Magnolia, Morus, Populus, Pyrus, Robinia, Quercus, Syringa, Tilia et Ulmus.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polypore_du_m%C3%BBrier</t>
+          <t>Polypore_du_mûrier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1815 Augustin Pyramus de Candolle le décrit pour la première fois sous le nom Merulius alveolaris ; en 1821 Elias Magnus Fries le nomme Cantharellus alveolaris et en 1941, il est transféré dans le genre Polyporus par Appollinaris Semenovich Bondartsev et Rolf Singer.
-Synonymie
-Selon BioLib                    (16 déc. 2015)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polypore_du_mûrier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polypore_du_m%C3%BBrier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (16 déc. 2015) :
 Boletus mori (Pollini) Pollini
 Cantharellus alveolaris (DC.) Fr.
 Daedalea broussonetiae Cappelli
@@ -589,7 +642,7 @@
 Favolus striatulus Ellis &amp; Everh.
 Favolus whetstonei Lloyd
 Hexagonia alveolaris (DC.) Murrill
-L'espèce orthographiée Polyporus alveolarius (Bosc : Fr.) Fr. est signalée en France sans localisation précise[3].
+L'espèce orthographiée Polyporus alveolarius (Bosc : Fr.) Fr. est signalée en France sans localisation précise.
 </t>
         </is>
       </c>
